--- a/src/test/resources/data/testData.xlsx
+++ b/src/test/resources/data/testData.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91733\Documents\Selenium_WFS\DataDrivenAproach\src\test\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91733\Documents\Selenium_WFS\PageObjectModel\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD397A41-0F02-4F0A-903A-C43DF52E23DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868FA8D8-B5C4-4D89-8B1F-4279F6439553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="doLogin" sheetId="1" r:id="rId1"/>
     <sheet name="doUserReg" sheetId="2" r:id="rId2"/>
     <sheet name="addCustomer" sheetId="3" r:id="rId3"/>
     <sheet name="openAccountTest" sheetId="4" r:id="rId4"/>
+    <sheet name="findNewCarTest" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>username1</t>
   </si>
@@ -136,6 +137,57 @@
   </si>
   <si>
     <t>Rupee</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>runmode</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>carBrand</t>
+  </si>
+  <si>
+    <t>tata</t>
+  </si>
+  <si>
+    <t>toyota</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>bmw</t>
+  </si>
+  <si>
+    <t>audi</t>
+  </si>
+  <si>
+    <t>carTitle</t>
+  </si>
+  <si>
+    <t>Tata Cars</t>
+  </si>
+  <si>
+    <t>Toyota Cars</t>
+  </si>
+  <si>
+    <t>Audi Cars</t>
+  </si>
+  <si>
+    <t>BMW Cars</t>
   </si>
 </sst>
 </file>
@@ -167,7 +219,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -190,14 +242,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,7 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E766DA-D36B-47A1-8713-7024976C8CDD}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -721,4 +786,89 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CDF239-8FB4-4140-A1E6-1C239D9CDBEE}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/data/testData.xlsx
+++ b/src/test/resources/data/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91733\Documents\Selenium_WFS\PageObjectModel\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868FA8D8-B5C4-4D89-8B1F-4279F6439553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351BE977-0562-4A61-8649-C5EE14407457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="doLogin" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="addCustomer" sheetId="3" r:id="rId3"/>
     <sheet name="openAccountTest" sheetId="4" r:id="rId4"/>
     <sheet name="findNewCarTest" sheetId="5" r:id="rId5"/>
+    <sheet name="getCarModelAndPriceTest" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>username1</t>
   </si>
@@ -257,12 +258,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CDF239-8FB4-4140-A1E6-1C239D9CDBEE}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -822,7 +822,7 @@
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -836,7 +836,7 @@
       <c r="C3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -850,7 +850,7 @@
       <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -864,8 +864,78 @@
       <c r="C5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D92029B-FE0F-429D-A3FB-8EB32F4B0892}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
